--- a/loaded_influencer_data/kk_ugc.creator/kk_ugc.creator_video.xlsx
+++ b/loaded_influencer_data/kk_ugc.creator/kk_ugc.creator_video.xlsx
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7483456418339671318</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -528,14 +528,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>영원히 핑키걸 복장🩷🌸 #foruyou #zatebestranica #foru #fürdich #foryoupage❤️❤️ #fyp #pink #pinkygirl💖</t>
+          <t>pinkygirloutfit forever🩷🌸
+#foruyou #zatebestranica #foru #fürdich #foryoupage❤️❤️ #fyp
+#pink #pinkygirl💖</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>18.84057971014493</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>18.84057971014493</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -544,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.347826086956522</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -556,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7483454977264995606</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -578,14 +580,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>최고의 립글로스🥹❤️ #lipglossfilling #fyp #fürdich #foru #for #makeup #zatebestranica #foruyou</t>
+          <t>the best lip gloss🥹❤️
+#lipglossfilling #fyp #fürdich #foru #for #makeup #zatebestranica #foruyou</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.272727272727273</v>
+        <v>2.370203160270881</v>
       </c>
       <c r="I3" t="n">
-        <v>2.272727272727273</v>
+        <v>2.370203160270881</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -594,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.3386004514672686</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -606,16 +609,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7472034186375793942</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -628,14 +631,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>뭔가 새로운✨☺️ 빨리 먹어보고 싶어 #mascara #lorealparis #fyp #foru #zatebestrana #foryoupage❤️❤️</t>
+          <t>something new✨️☺️
+can't wait to try them
+#mascara #lorealparis #fyp #foru #zatebestrana</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.219409282700422</v>
+        <v>4.311251314405888</v>
       </c>
       <c r="I4" t="n">
-        <v>4.219409282700422</v>
+        <v>4.311251314405888</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -644,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1054852320675105</v>
+        <v>0.1051524710830705</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -656,16 +661,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7470580443931331862</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -678,14 +683,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>파티 디바 반짝이를 곁들인 세련된 향기로운 오일 • 100% 천연, 미네랄 유래의 세퀸 • 관능적인 향수 노트 • 오일로 럭셔리 케어 • 비건 포뮬러 • 슬로베니아 품질 🤍</t>
+          <t>PARTY DIVA Prefinjeno dišeče olje z bleščicami
+•Bleščice iz 100% naravnega, mineralnega izvora
+•Čutne parfumske note</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.489531405782652</v>
+        <v>3.6779324055666</v>
       </c>
       <c r="I5" t="n">
-        <v>3.489531405782652</v>
+        <v>3.6779324055666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -694,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6979062811565304</v>
+        <v>0.6958250497017893</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -706,13 +713,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7469866588456504598</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C6" t="n">
         <v>36</v>
@@ -728,14 +735,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>파티 디바 반짝이를 곁들인 세련된 향기로운 오일 • 100% 천연, 미네랄 유래의 세퀸 • 관능적인 향수 노트 • 오일로 럭셔리 케어 • 비건 포뮬러 • 슬로베니아 품질 🤍</t>
+          <t>THERE SHE GLOWS AGAIN!!!✨️✨️✨️
+Here's a little reminder to drink your skincare. Remember it all starts within🍋🍎🍊🪷</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.560830860534125</v>
+        <v>3.557312252964427</v>
       </c>
       <c r="I6" t="n">
-        <v>3.560830860534125</v>
+        <v>3.557312252964427</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -744,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9891196834817012</v>
+        <v>0.9881422924901186</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -756,13 +764,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7468371012753558806</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C7" t="n">
         <v>34</v>
@@ -778,14 +786,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>한번 해보자☺️@Hemptouch #forupage #fyp #fyp #skincare #fürdich #foryoupage❤️❤️ #ugc</t>
+          <t>THERE SHE GLOWS AGAIN!!!✨️✨️✨️
+Here's a little reminder to drink your skincare. Remember it all starts within🍋🍎🍊🪷</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.888631090487238</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="I7" t="n">
-        <v>7.888631090487238</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -794,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9280742459396751</v>
+        <v>0.9216589861751152</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -806,16 +815,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/photo/7467278220241489174</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -824,18 +833,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>룸투어🔅 @LifeClass Portoroz #portoroz #sun #fyp #foru #seasideview #peace #forupage</t>
+          <t>@Hemptouch #forupage #fyp #fyp #skincare #fürdich #foryoupage❤️❤️ #ugc
+lets try it☺️</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.712962962962964</v>
+        <v>7.780320366132723</v>
       </c>
       <c r="I8" t="n">
-        <v>6.712962962962964</v>
+        <v>7.780320366132723</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -844,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2314814814814815</v>
+        <v>0.9153318077803204</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-07</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7464897718637399318</t>
         </is>
@@ -865,7 +875,7 @@
         <v>124</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -874,18 +884,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"스킨케어의 세계에서는 모든 빛이 하나의 루틴으로 시작됩니다." * 윤기있고 유리 같은 피부를 위한 내가 가장 좋아하는 제품 * 나는 사용합니다 : *하루하루 원더 블랙라이스 모이스처 딥 클렌징 오일✨ * 글로우 보충 쌀 우유 * 조선의 아름다움 글로우 딥 세럼 라이스 + 아르부틴✨</t>
+          <t>room tour🔅
+@LifeClass Portoroz #portoroz #sun #fyp #foru #seasideview #peace #forupage</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>26.61290322580645</v>
+        <v>23.38709677419355</v>
       </c>
       <c r="I9" t="n">
-        <v>26.61290322580645</v>
+        <v>23.38709677419355</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -894,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.419354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-02-04</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7464494566515723542</t>
         </is>
@@ -915,7 +926,7 @@
         <v>399</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -928,14 +939,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>거울, 벽에 걸린 거울, 그들 중 가장 빛나는 피부를 가진 사람은 누구입니까? ✨ Nuxe Huile Prodigieuse 다목적 드라이 오일로, 바로 당신입니다! ✨얼굴, 몸, 머리카락의 피부를 한 번에 영양 공급, 보충 및 미화✨</t>
+          <t>"In the world of skincare, every glow begins with a single routine."
+* My fav producst for glowy and glassy skin
+* I use:</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.022556390977442</v>
+        <v>8.270676691729323</v>
       </c>
       <c r="I10" t="n">
-        <v>9.022556390977442</v>
+        <v>8.270676691729323</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -951,12 +964,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7463537417748745494</t>
         </is>
@@ -1006,7 +1019,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/photo/7463200790144945430</t>
         </is>
@@ -1056,7 +1069,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7463130402425752854</t>
         </is>
@@ -1106,7 +1119,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7463127475015519510</t>
         </is>
@@ -1156,7 +1169,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/video/7463040622354631958</t>
         </is>
@@ -1206,7 +1219,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/photo/7462763624545668374</t>
         </is>
@@ -1256,7 +1269,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/photo/7462752725630045462</t>
         </is>
@@ -1306,7 +1319,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kk_ugc.creator/photo/7462750193360850198</t>
         </is>
